--- a/appendix/mean_4ds_f1_macro_top4th.xlsx
+++ b/appendix/mean_4ds_f1_macro_top4th.xlsx
@@ -525,7 +525,7 @@
         <v>0.58</v>
       </c>
       <c r="G3" t="n">
-        <v>0.597</v>
+        <v>0.601</v>
       </c>
       <c r="H3" t="n">
         <v>0.631</v>

--- a/appendix/mean_4ds_f1_macro_top4th.xlsx
+++ b/appendix/mean_4ds_f1_macro_top4th.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.44</v>
+        <v>0.456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.544</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.572</v>
+        <v>0.592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.622</v>
+        <v>0.64</v>
       </c>
       <c r="G5" t="n">
-        <v>0.635</v>
+        <v>0.651</v>
       </c>
       <c r="H5" t="n">
-        <v>0.647</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="6">
@@ -618,23 +618,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.44</v>
+        <v>0.456</v>
       </c>
       <c r="D7" t="n">
         <v>0.573</v>
       </c>
       <c r="E7" t="n">
-        <v>0.589</v>
+        <v>0.592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.627</v>
+        <v>0.64</v>
       </c>
       <c r="G7" t="n">
         <v>0.652</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.427</v>
+        <v>0.462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.612</v>
+        <v>0.632</v>
       </c>
       <c r="E8" t="n">
-        <v>0.662</v>
+        <v>0.661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="G8" t="n">
-        <v>0.713</v>
+        <v>0.719</v>
       </c>
       <c r="H8" t="n">
-        <v>0.726</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.501</v>
+        <v>0.509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="E9" t="n">
-        <v>0.656</v>
+        <v>0.667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="G9" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.724</v>
+        <v>0.719</v>
       </c>
     </row>
   </sheetData>
